--- a/src/main/resources/multiple-common-eligibility.xlsx
+++ b/src/main/resources/multiple-common-eligibility.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>RuleSet</t>
   </si>
@@ -40,13 +40,13 @@
     <t>learnerObject: MultipleCommonCondition</t>
   </si>
   <si>
-    <t>university.equals($param)</t>
+    <t>scholarshipTestPercentage&gt;$param</t>
   </si>
   <si>
     <t xml:space="preserve">product.equals($1) || product.equals($2) || product.equals($3) || product.equals($4) || product.equals($5) </t>
   </si>
   <si>
-    <t>scholarshipTestPercentage&gt;$param</t>
+    <t>university==$1 || university==$2 || university==$3 || university==$4 || university==$5</t>
   </si>
   <si>
     <t>learnerObject.setEligibility($param);</t>
@@ -58,16 +58,16 @@
     <t>background</t>
   </si>
   <si>
-    <t xml:space="preserve">university </t>
+    <t>scholarshipTestPercentage</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>Test Percentage</t>
+    <t>university</t>
   </si>
   <si>
-    <t xml:space="preserve">Set Eligibility </t>
+    <t>Set eligibility</t>
   </si>
   <si>
     <t xml:space="preserve">Set Scholarship </t>
@@ -76,10 +76,10 @@
     <t>SC</t>
   </si>
   <si>
-    <t>"kolkata"</t>
+    <t>"javascript","java","c++","c#","python"</t>
   </si>
   <si>
-    <t>"javascript","java","c++","c#","python"</t>
+    <t>"kolkata","bangalore","kerala","hyderabad","chennai"</t>
   </si>
   <si>
     <t>"Eligible for scholarship"</t>
@@ -88,29 +88,17 @@
     <t>"50% of the total fee."</t>
   </si>
   <si>
-    <t>"bangalore"</t>
-  </si>
-  <si>
-    <t>"lucknow"</t>
-  </si>
-  <si>
     <t>OBC</t>
   </si>
   <si>
-    <t>"30% of the total fee."</t>
-  </si>
-  <si>
     <t>GENERAL</t>
-  </si>
-  <si>
-    <t>"10% of the total fee."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -118,8 +106,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -128,8 +121,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -138,11 +142,17 @@
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +163,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFC1"/>
         <bgColor rgb="FFFFFFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,8 +189,14 @@
         <bgColor rgb="FFBCC7D7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -220,66 +242,134 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,11 +587,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.43"/>
-    <col customWidth="1" min="2" max="2" width="116.0"/>
-    <col customWidth="1" min="3" max="3" width="39.14"/>
-    <col customWidth="1" min="4" max="4" width="32.86"/>
-    <col customWidth="1" min="5" max="6" width="53.43"/>
+    <col customWidth="1" min="1" max="1" width="40.86"/>
+    <col customWidth="1" min="2" max="2" width="57.71"/>
+    <col customWidth="1" min="3" max="3" width="50.43"/>
+    <col customWidth="1" min="4" max="4" width="86.71"/>
+    <col customWidth="1" min="5" max="5" width="75.57"/>
+    <col customWidth="1" min="6" max="6" width="42.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,283 +603,4127 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="26" t="s">
         <v>19</v>
       </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="28">
+        <v>70.0</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15">
+      <c r="E8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="28">
         <v>70.0</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F9" s="32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="27" t="s">
+        <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
+      <c r="B10" s="28">
+        <v>70.0</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15">
-        <v>70.0</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="E10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="17" t="s">
-        <v>20</v>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="33">
+        <v>0.0</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="18">
-        <v>70.0</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="C16" s="34"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="34"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="34"/>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="34"/>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="34"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="34"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="34"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="34"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="34"/>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="34"/>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="34"/>
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="34"/>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="34"/>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="34"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="34"/>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="34"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="34"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="34"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="34"/>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="34"/>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="34"/>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="34"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="34"/>
+      <c r="F38" s="37"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="34"/>
+      <c r="F39" s="37"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="34"/>
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="34"/>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="34"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="34"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="34"/>
+      <c r="F44" s="37"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="34"/>
+      <c r="F45" s="37"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="34"/>
+      <c r="F46" s="37"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="34"/>
+      <c r="F47" s="37"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="34"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="34"/>
+      <c r="F49" s="37"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="34"/>
+      <c r="F50" s="37"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="34"/>
+      <c r="F51" s="37"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="34"/>
+      <c r="F52" s="37"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="34"/>
+      <c r="F53" s="37"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="34"/>
+      <c r="F54" s="37"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="34"/>
+      <c r="F55" s="37"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="34"/>
+      <c r="F56" s="37"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="34"/>
+      <c r="F57" s="37"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="34"/>
+      <c r="F58" s="37"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="34"/>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="34"/>
+      <c r="F60" s="37"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="34"/>
+      <c r="F61" s="37"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="34"/>
+      <c r="F62" s="37"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="34"/>
+      <c r="F63" s="37"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="34"/>
+      <c r="F64" s="37"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="34"/>
+      <c r="F65" s="37"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="34"/>
+      <c r="F66" s="37"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="34"/>
+      <c r="F67" s="37"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="34"/>
+      <c r="F68" s="37"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="34"/>
+      <c r="F69" s="37"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="34"/>
+      <c r="F70" s="37"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="34"/>
+      <c r="F71" s="37"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="34"/>
+      <c r="F72" s="37"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="34"/>
+      <c r="F73" s="37"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="34"/>
+      <c r="F74" s="37"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="34"/>
+      <c r="F75" s="37"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="34"/>
+      <c r="F76" s="37"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="34"/>
+      <c r="F77" s="37"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="34"/>
+      <c r="F78" s="37"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="34"/>
+      <c r="F79" s="37"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="34"/>
+      <c r="F80" s="37"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="34"/>
+      <c r="F81" s="37"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="34"/>
+      <c r="F82" s="37"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="34"/>
+      <c r="F83" s="37"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="34"/>
+      <c r="F84" s="37"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="34"/>
+      <c r="F85" s="37"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="34"/>
+      <c r="F86" s="37"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="34"/>
+      <c r="F87" s="37"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="34"/>
+      <c r="F88" s="37"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="34"/>
+      <c r="F89" s="37"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="34"/>
+      <c r="F90" s="37"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="34"/>
+      <c r="F91" s="37"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="34"/>
+      <c r="F92" s="37"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="34"/>
+      <c r="F93" s="37"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="34"/>
+      <c r="F94" s="37"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="34"/>
+      <c r="F95" s="37"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="34"/>
+      <c r="F96" s="37"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="34"/>
+      <c r="F97" s="37"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="34"/>
+      <c r="F98" s="37"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="34"/>
+      <c r="F99" s="37"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="34"/>
+      <c r="F100" s="37"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="34"/>
+      <c r="F101" s="37"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="34"/>
+      <c r="F102" s="37"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="34"/>
+      <c r="F103" s="37"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="34"/>
+      <c r="F104" s="37"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="34"/>
+      <c r="F105" s="37"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="34"/>
+      <c r="F106" s="37"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="34"/>
+      <c r="F107" s="37"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="34"/>
+      <c r="F108" s="37"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="34"/>
+      <c r="F109" s="37"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="34"/>
+      <c r="F110" s="37"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="34"/>
+      <c r="F111" s="37"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="34"/>
+      <c r="F112" s="37"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="34"/>
+      <c r="F113" s="37"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="34"/>
+      <c r="F114" s="37"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="34"/>
+      <c r="F115" s="37"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="34"/>
+      <c r="F116" s="37"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="34"/>
+      <c r="F117" s="37"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="34"/>
+      <c r="F118" s="37"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="34"/>
+      <c r="F119" s="37"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="34"/>
+      <c r="F120" s="37"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="34"/>
+      <c r="F121" s="37"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="34"/>
+      <c r="F122" s="37"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="34"/>
+      <c r="F123" s="37"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="34"/>
+      <c r="F124" s="37"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="34"/>
+      <c r="F125" s="37"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="34"/>
+      <c r="F126" s="37"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="34"/>
+      <c r="F127" s="37"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="34"/>
+      <c r="F128" s="37"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="34"/>
+      <c r="F129" s="37"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="34"/>
+      <c r="F130" s="37"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="34"/>
+      <c r="F131" s="37"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="34"/>
+      <c r="F132" s="37"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="34"/>
+      <c r="F133" s="37"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="34"/>
+      <c r="F134" s="37"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="34"/>
+      <c r="F135" s="37"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="34"/>
+      <c r="F136" s="37"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="34"/>
+      <c r="F137" s="37"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="34"/>
+      <c r="F138" s="37"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="34"/>
+      <c r="F139" s="37"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="34"/>
+      <c r="F140" s="37"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="34"/>
+      <c r="F141" s="37"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="34"/>
+      <c r="F142" s="37"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="34"/>
+      <c r="F143" s="37"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="34"/>
+      <c r="F144" s="37"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="34"/>
+      <c r="F145" s="37"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="34"/>
+      <c r="F146" s="37"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="34"/>
+      <c r="F147" s="37"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="34"/>
+      <c r="F148" s="37"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="34"/>
+      <c r="F149" s="37"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="34"/>
+      <c r="F150" s="37"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="34"/>
+      <c r="F151" s="37"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="34"/>
+      <c r="F152" s="37"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="34"/>
+      <c r="F153" s="37"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="34"/>
+      <c r="F154" s="37"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="34"/>
+      <c r="F155" s="37"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="34"/>
+      <c r="F156" s="37"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="34"/>
+      <c r="F157" s="37"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="34"/>
+      <c r="F158" s="37"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="34"/>
+      <c r="F159" s="37"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="34"/>
+      <c r="F160" s="37"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="34"/>
+      <c r="F161" s="37"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="34"/>
+      <c r="F162" s="37"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="34"/>
+      <c r="F163" s="37"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="34"/>
+      <c r="F164" s="37"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="34"/>
+      <c r="F165" s="37"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="34"/>
+      <c r="F166" s="37"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="34"/>
+      <c r="F167" s="37"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="34"/>
+      <c r="F168" s="37"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="34"/>
+      <c r="F169" s="37"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="34"/>
+      <c r="F170" s="37"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="34"/>
+      <c r="F171" s="37"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="34"/>
+      <c r="F172" s="37"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="34"/>
+      <c r="F173" s="37"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="34"/>
+      <c r="F174" s="37"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="34"/>
+      <c r="F175" s="37"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="34"/>
+      <c r="F176" s="37"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="34"/>
+      <c r="F177" s="37"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="34"/>
+      <c r="F178" s="37"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="34"/>
+      <c r="F179" s="37"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="34"/>
+      <c r="F180" s="37"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="34"/>
+      <c r="F181" s="37"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="34"/>
+      <c r="F182" s="37"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="34"/>
+      <c r="F183" s="37"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="34"/>
+      <c r="F184" s="37"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="34"/>
+      <c r="F185" s="37"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="34"/>
+      <c r="F186" s="37"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="34"/>
+      <c r="F187" s="37"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="34"/>
+      <c r="F188" s="37"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="34"/>
+      <c r="F189" s="37"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="34"/>
+      <c r="F190" s="37"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="34"/>
+      <c r="F191" s="37"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="34"/>
+      <c r="F192" s="37"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="34"/>
+      <c r="F193" s="37"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="34"/>
+      <c r="F194" s="37"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="34"/>
+      <c r="F195" s="37"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="34"/>
+      <c r="F196" s="37"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="34"/>
+      <c r="F197" s="37"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="34"/>
+      <c r="F198" s="37"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="34"/>
+      <c r="F199" s="37"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="34"/>
+      <c r="F200" s="37"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="34"/>
+      <c r="F201" s="37"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="34"/>
+      <c r="F202" s="37"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="34"/>
+      <c r="F203" s="37"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="34"/>
+      <c r="F204" s="37"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="34"/>
+      <c r="F205" s="37"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="34"/>
+      <c r="F206" s="37"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="34"/>
+      <c r="F207" s="37"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="34"/>
+      <c r="F208" s="37"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="34"/>
+      <c r="F209" s="37"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="34"/>
+      <c r="F210" s="37"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="34"/>
+      <c r="F211" s="37"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="34"/>
+      <c r="F212" s="37"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="34"/>
+      <c r="F213" s="37"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="34"/>
+      <c r="F214" s="37"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="34"/>
+      <c r="F215" s="37"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="34"/>
+      <c r="F216" s="37"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="34"/>
+      <c r="F217" s="37"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="34"/>
+      <c r="F218" s="37"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="34"/>
+      <c r="F219" s="37"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="34"/>
+      <c r="F220" s="37"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="34"/>
+      <c r="F221" s="37"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="34"/>
+      <c r="F222" s="37"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="34"/>
+      <c r="F223" s="37"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="34"/>
+      <c r="F224" s="37"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="34"/>
+      <c r="F225" s="37"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="34"/>
+      <c r="F226" s="37"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="34"/>
+      <c r="F227" s="37"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="34"/>
+      <c r="F228" s="37"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="34"/>
+      <c r="F229" s="37"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="34"/>
+      <c r="F230" s="37"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="34"/>
+      <c r="F231" s="37"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="34"/>
+      <c r="F232" s="37"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="34"/>
+      <c r="F233" s="37"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="34"/>
+      <c r="F234" s="37"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="34"/>
+      <c r="F235" s="37"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="34"/>
+      <c r="F236" s="37"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="34"/>
+      <c r="F237" s="37"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="34"/>
+      <c r="F238" s="37"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="34"/>
+      <c r="F239" s="37"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="34"/>
+      <c r="F240" s="37"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="34"/>
+      <c r="F241" s="37"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="34"/>
+      <c r="F242" s="37"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="34"/>
+      <c r="F243" s="37"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="34"/>
+      <c r="F244" s="37"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="34"/>
+      <c r="F245" s="37"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="34"/>
+      <c r="F246" s="37"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="34"/>
+      <c r="F247" s="37"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="34"/>
+      <c r="F248" s="37"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="34"/>
+      <c r="F249" s="37"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="34"/>
+      <c r="F250" s="37"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="34"/>
+      <c r="F251" s="37"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="34"/>
+      <c r="F252" s="37"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="34"/>
+      <c r="F253" s="37"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="34"/>
+      <c r="F254" s="37"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="34"/>
+      <c r="F255" s="37"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="34"/>
+      <c r="F256" s="37"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="34"/>
+      <c r="F257" s="37"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="34"/>
+      <c r="F258" s="37"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="34"/>
+      <c r="F259" s="37"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="34"/>
+      <c r="F260" s="37"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="34"/>
+      <c r="F261" s="37"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="34"/>
+      <c r="F262" s="37"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="34"/>
+      <c r="F263" s="37"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="34"/>
+      <c r="F264" s="37"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="34"/>
+      <c r="F265" s="37"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="34"/>
+      <c r="F266" s="37"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="34"/>
+      <c r="F267" s="37"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="34"/>
+      <c r="F268" s="37"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="34"/>
+      <c r="F269" s="37"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="34"/>
+      <c r="F270" s="37"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="34"/>
+      <c r="F271" s="37"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="34"/>
+      <c r="F272" s="37"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="34"/>
+      <c r="F273" s="37"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="34"/>
+      <c r="F274" s="37"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="34"/>
+      <c r="F275" s="37"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="34"/>
+      <c r="F276" s="37"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="34"/>
+      <c r="F277" s="37"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="34"/>
+      <c r="F278" s="37"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="34"/>
+      <c r="F279" s="37"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="34"/>
+      <c r="F280" s="37"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="34"/>
+      <c r="F281" s="37"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="34"/>
+      <c r="F282" s="37"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="34"/>
+      <c r="F283" s="37"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="34"/>
+      <c r="F284" s="37"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="34"/>
+      <c r="F285" s="37"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="34"/>
+      <c r="F286" s="37"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="34"/>
+      <c r="F287" s="37"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="34"/>
+      <c r="F288" s="37"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="34"/>
+      <c r="F289" s="37"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="34"/>
+      <c r="F290" s="37"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="34"/>
+      <c r="F291" s="37"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="34"/>
+      <c r="F292" s="37"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="34"/>
+      <c r="F293" s="37"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="34"/>
+      <c r="F294" s="37"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="34"/>
+      <c r="F295" s="37"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="34"/>
+      <c r="F296" s="37"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="34"/>
+      <c r="F297" s="37"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="34"/>
+      <c r="F298" s="37"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="34"/>
+      <c r="F299" s="37"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="34"/>
+      <c r="F300" s="37"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="34"/>
+      <c r="F301" s="37"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="34"/>
+      <c r="F302" s="37"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="34"/>
+      <c r="F303" s="37"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="34"/>
+      <c r="F304" s="37"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="34"/>
+      <c r="F305" s="37"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="34"/>
+      <c r="F306" s="37"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="34"/>
+      <c r="F307" s="37"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="34"/>
+      <c r="F308" s="37"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="34"/>
+      <c r="F309" s="37"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="34"/>
+      <c r="F310" s="37"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="34"/>
+      <c r="F311" s="37"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="34"/>
+      <c r="F312" s="37"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="34"/>
+      <c r="F313" s="37"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="34"/>
+      <c r="F314" s="37"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="34"/>
+      <c r="F315" s="37"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="34"/>
+      <c r="F316" s="37"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="34"/>
+      <c r="F317" s="37"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="34"/>
+      <c r="F318" s="37"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="34"/>
+      <c r="F319" s="37"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="34"/>
+      <c r="F320" s="37"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="34"/>
+      <c r="F321" s="37"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="34"/>
+      <c r="F322" s="37"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="34"/>
+      <c r="F323" s="37"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="34"/>
+      <c r="F324" s="37"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="34"/>
+      <c r="F325" s="37"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="34"/>
+      <c r="F326" s="37"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="34"/>
+      <c r="F327" s="37"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="34"/>
+      <c r="F328" s="37"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="34"/>
+      <c r="F329" s="37"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="34"/>
+      <c r="F330" s="37"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="34"/>
+      <c r="F331" s="37"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="34"/>
+      <c r="F332" s="37"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="34"/>
+      <c r="F333" s="37"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="34"/>
+      <c r="F334" s="37"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="34"/>
+      <c r="F335" s="37"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="34"/>
+      <c r="F336" s="37"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="34"/>
+      <c r="F337" s="37"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="34"/>
+      <c r="F338" s="37"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="34"/>
+      <c r="F339" s="37"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="34"/>
+      <c r="F340" s="37"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="34"/>
+      <c r="F341" s="37"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="34"/>
+      <c r="F342" s="37"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="34"/>
+      <c r="F343" s="37"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="34"/>
+      <c r="F344" s="37"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="34"/>
+      <c r="F345" s="37"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="34"/>
+      <c r="F346" s="37"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="34"/>
+      <c r="F347" s="37"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="34"/>
+      <c r="F348" s="37"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="34"/>
+      <c r="F349" s="37"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="34"/>
+      <c r="F350" s="37"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="34"/>
+      <c r="F351" s="37"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="34"/>
+      <c r="F352" s="37"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="34"/>
+      <c r="F353" s="37"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="34"/>
+      <c r="F354" s="37"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="34"/>
+      <c r="F355" s="37"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="34"/>
+      <c r="F356" s="37"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="34"/>
+      <c r="F357" s="37"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="34"/>
+      <c r="F358" s="37"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="34"/>
+      <c r="F359" s="37"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="34"/>
+      <c r="F360" s="37"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="34"/>
+      <c r="F361" s="37"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="34"/>
+      <c r="F362" s="37"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="34"/>
+      <c r="F363" s="37"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="34"/>
+      <c r="F364" s="37"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="34"/>
+      <c r="F365" s="37"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="34"/>
+      <c r="F366" s="37"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="34"/>
+      <c r="F367" s="37"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="34"/>
+      <c r="F368" s="37"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="34"/>
+      <c r="F369" s="37"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="34"/>
+      <c r="F370" s="37"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="34"/>
+      <c r="F371" s="37"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="34"/>
+      <c r="F372" s="37"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="34"/>
+      <c r="F373" s="37"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="34"/>
+      <c r="F374" s="37"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="34"/>
+      <c r="F375" s="37"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="34"/>
+      <c r="F376" s="37"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="34"/>
+      <c r="F377" s="37"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="34"/>
+      <c r="F378" s="37"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="34"/>
+      <c r="F379" s="37"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="34"/>
+      <c r="F380" s="37"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="34"/>
+      <c r="F381" s="37"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="34"/>
+      <c r="F382" s="37"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="34"/>
+      <c r="F383" s="37"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="34"/>
+      <c r="F384" s="37"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="34"/>
+      <c r="F385" s="37"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="34"/>
+      <c r="F386" s="37"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="34"/>
+      <c r="F387" s="37"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="34"/>
+      <c r="F388" s="37"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="34"/>
+      <c r="F389" s="37"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="34"/>
+      <c r="F390" s="37"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="34"/>
+      <c r="F391" s="37"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="34"/>
+      <c r="F392" s="37"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="34"/>
+      <c r="F393" s="37"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="34"/>
+      <c r="F394" s="37"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="34"/>
+      <c r="F395" s="37"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="34"/>
+      <c r="F396" s="37"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="34"/>
+      <c r="F397" s="37"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="34"/>
+      <c r="F398" s="37"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="34"/>
+      <c r="F399" s="37"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="34"/>
+      <c r="F400" s="37"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="34"/>
+      <c r="F401" s="37"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="34"/>
+      <c r="F402" s="37"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="34"/>
+      <c r="F403" s="37"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="34"/>
+      <c r="F404" s="37"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="34"/>
+      <c r="F405" s="37"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="34"/>
+      <c r="F406" s="37"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="34"/>
+      <c r="F407" s="37"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="34"/>
+      <c r="F408" s="37"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="34"/>
+      <c r="F409" s="37"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="34"/>
+      <c r="F410" s="37"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="34"/>
+      <c r="F411" s="37"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="34"/>
+      <c r="F412" s="37"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="34"/>
+      <c r="F413" s="37"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="34"/>
+      <c r="F414" s="37"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="34"/>
+      <c r="F415" s="37"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="34"/>
+      <c r="F416" s="37"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="34"/>
+      <c r="F417" s="37"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="34"/>
+      <c r="F418" s="37"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="34"/>
+      <c r="F419" s="37"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="34"/>
+      <c r="F420" s="37"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="34"/>
+      <c r="F421" s="37"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="34"/>
+      <c r="F422" s="37"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="34"/>
+      <c r="F423" s="37"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="34"/>
+      <c r="F424" s="37"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="34"/>
+      <c r="F425" s="37"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="34"/>
+      <c r="F426" s="37"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="34"/>
+      <c r="F427" s="37"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="34"/>
+      <c r="F428" s="37"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="34"/>
+      <c r="F429" s="37"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="34"/>
+      <c r="F430" s="37"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="34"/>
+      <c r="F431" s="37"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="34"/>
+      <c r="F432" s="37"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="34"/>
+      <c r="F433" s="37"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="34"/>
+      <c r="F434" s="37"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="34"/>
+      <c r="F435" s="37"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="34"/>
+      <c r="F436" s="37"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="34"/>
+      <c r="F437" s="37"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="34"/>
+      <c r="F438" s="37"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="34"/>
+      <c r="F439" s="37"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="34"/>
+      <c r="F440" s="37"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="34"/>
+      <c r="F441" s="37"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="34"/>
+      <c r="F442" s="37"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="34"/>
+      <c r="F443" s="37"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="34"/>
+      <c r="F444" s="37"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="34"/>
+      <c r="F445" s="37"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="34"/>
+      <c r="F446" s="37"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="34"/>
+      <c r="F447" s="37"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="34"/>
+      <c r="F448" s="37"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="34"/>
+      <c r="F449" s="37"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="34"/>
+      <c r="F450" s="37"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="34"/>
+      <c r="F451" s="37"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="34"/>
+      <c r="F452" s="37"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="34"/>
+      <c r="F453" s="37"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="34"/>
+      <c r="F454" s="37"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="34"/>
+      <c r="F455" s="37"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="34"/>
+      <c r="F456" s="37"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="34"/>
+      <c r="F457" s="37"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="34"/>
+      <c r="F458" s="37"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="34"/>
+      <c r="F459" s="37"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="34"/>
+      <c r="F460" s="37"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="34"/>
+      <c r="F461" s="37"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="34"/>
+      <c r="F462" s="37"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="34"/>
+      <c r="F463" s="37"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="34"/>
+      <c r="F464" s="37"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="34"/>
+      <c r="F465" s="37"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="34"/>
+      <c r="F466" s="37"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="34"/>
+      <c r="F467" s="37"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="34"/>
+      <c r="F468" s="37"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="34"/>
+      <c r="F469" s="37"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="34"/>
+      <c r="F470" s="37"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="34"/>
+      <c r="F471" s="37"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="34"/>
+      <c r="F472" s="37"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="34"/>
+      <c r="F473" s="37"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="34"/>
+      <c r="F474" s="37"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="34"/>
+      <c r="F475" s="37"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="34"/>
+      <c r="F476" s="37"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="34"/>
+      <c r="F477" s="37"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="34"/>
+      <c r="F478" s="37"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="34"/>
+      <c r="F479" s="37"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="34"/>
+      <c r="F480" s="37"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="34"/>
+      <c r="F481" s="37"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="34"/>
+      <c r="F482" s="37"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="34"/>
+      <c r="F483" s="37"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="34"/>
+      <c r="F484" s="37"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="34"/>
+      <c r="F485" s="37"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="34"/>
+      <c r="F486" s="37"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="34"/>
+      <c r="F487" s="37"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="34"/>
+      <c r="F488" s="37"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="34"/>
+      <c r="F489" s="37"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="34"/>
+      <c r="F490" s="37"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="34"/>
+      <c r="F491" s="37"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="34"/>
+      <c r="F492" s="37"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="34"/>
+      <c r="F493" s="37"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="34"/>
+      <c r="F494" s="37"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="34"/>
+      <c r="F495" s="37"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="34"/>
+      <c r="F496" s="37"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="34"/>
+      <c r="F497" s="37"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="34"/>
+      <c r="F498" s="37"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="34"/>
+      <c r="F499" s="37"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="34"/>
+      <c r="F500" s="37"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="34"/>
+      <c r="F501" s="37"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="34"/>
+      <c r="F502" s="37"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="34"/>
+      <c r="F503" s="37"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="34"/>
+      <c r="F504" s="37"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="34"/>
+      <c r="F505" s="37"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="34"/>
+      <c r="F506" s="37"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="34"/>
+      <c r="F507" s="37"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="34"/>
+      <c r="F508" s="37"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="34"/>
+      <c r="F509" s="37"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="34"/>
+      <c r="F510" s="37"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="34"/>
+      <c r="F511" s="37"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="34"/>
+      <c r="F512" s="37"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="34"/>
+      <c r="F513" s="37"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="34"/>
+      <c r="F514" s="37"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="34"/>
+      <c r="F515" s="37"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="34"/>
+      <c r="F516" s="37"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="34"/>
+      <c r="F517" s="37"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="34"/>
+      <c r="F518" s="37"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="34"/>
+      <c r="F519" s="37"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="34"/>
+      <c r="F520" s="37"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="34"/>
+      <c r="F521" s="37"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="34"/>
+      <c r="F522" s="37"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="34"/>
+      <c r="F523" s="37"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="34"/>
+      <c r="F524" s="37"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="34"/>
+      <c r="F525" s="37"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="34"/>
+      <c r="F526" s="37"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="34"/>
+      <c r="F527" s="37"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="34"/>
+      <c r="F528" s="37"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="34"/>
+      <c r="F529" s="37"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="34"/>
+      <c r="F530" s="37"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="34"/>
+      <c r="F531" s="37"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="34"/>
+      <c r="F532" s="37"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="34"/>
+      <c r="F533" s="37"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="34"/>
+      <c r="F534" s="37"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="34"/>
+      <c r="F535" s="37"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="34"/>
+      <c r="F536" s="37"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="34"/>
+      <c r="F537" s="37"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="34"/>
+      <c r="F538" s="37"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="34"/>
+      <c r="F539" s="37"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="34"/>
+      <c r="F540" s="37"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="34"/>
+      <c r="F541" s="37"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="34"/>
+      <c r="F542" s="37"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="34"/>
+      <c r="F543" s="37"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="34"/>
+      <c r="F544" s="37"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="34"/>
+      <c r="F545" s="37"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="34"/>
+      <c r="F546" s="37"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="34"/>
+      <c r="F547" s="37"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="34"/>
+      <c r="F548" s="37"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="34"/>
+      <c r="F549" s="37"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="34"/>
+      <c r="F550" s="37"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="34"/>
+      <c r="F551" s="37"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="34"/>
+      <c r="F552" s="37"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="34"/>
+      <c r="F553" s="37"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="34"/>
+      <c r="F554" s="37"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="34"/>
+      <c r="F555" s="37"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="34"/>
+      <c r="F556" s="37"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="34"/>
+      <c r="F557" s="37"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="34"/>
+      <c r="F558" s="37"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="34"/>
+      <c r="F559" s="37"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="34"/>
+      <c r="F560" s="37"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="34"/>
+      <c r="F561" s="37"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="34"/>
+      <c r="F562" s="37"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="34"/>
+      <c r="F563" s="37"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="34"/>
+      <c r="F564" s="37"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="34"/>
+      <c r="F565" s="37"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="34"/>
+      <c r="F566" s="37"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="34"/>
+      <c r="F567" s="37"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="34"/>
+      <c r="F568" s="37"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="34"/>
+      <c r="F569" s="37"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="34"/>
+      <c r="F570" s="37"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="34"/>
+      <c r="F571" s="37"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="34"/>
+      <c r="F572" s="37"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="34"/>
+      <c r="F573" s="37"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="34"/>
+      <c r="F574" s="37"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="34"/>
+      <c r="F575" s="37"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="34"/>
+      <c r="F576" s="37"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="34"/>
+      <c r="F577" s="37"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="34"/>
+      <c r="F578" s="37"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="34"/>
+      <c r="F579" s="37"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="34"/>
+      <c r="F580" s="37"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="34"/>
+      <c r="F581" s="37"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="34"/>
+      <c r="F582" s="37"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="34"/>
+      <c r="F583" s="37"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="34"/>
+      <c r="F584" s="37"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="34"/>
+      <c r="F585" s="37"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="34"/>
+      <c r="F586" s="37"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="34"/>
+      <c r="F587" s="37"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="34"/>
+      <c r="F588" s="37"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="34"/>
+      <c r="F589" s="37"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="34"/>
+      <c r="F590" s="37"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="34"/>
+      <c r="F591" s="37"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="34"/>
+      <c r="F592" s="37"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="34"/>
+      <c r="F593" s="37"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="34"/>
+      <c r="F594" s="37"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="34"/>
+      <c r="F595" s="37"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="34"/>
+      <c r="F596" s="37"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="34"/>
+      <c r="F597" s="37"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="34"/>
+      <c r="F598" s="37"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="34"/>
+      <c r="F599" s="37"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="34"/>
+      <c r="F600" s="37"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="34"/>
+      <c r="F601" s="37"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="34"/>
+      <c r="F602" s="37"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="34"/>
+      <c r="F603" s="37"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="34"/>
+      <c r="F604" s="37"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="34"/>
+      <c r="F605" s="37"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="34"/>
+      <c r="F606" s="37"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="34"/>
+      <c r="F607" s="37"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="34"/>
+      <c r="F608" s="37"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="34"/>
+      <c r="F609" s="37"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="34"/>
+      <c r="F610" s="37"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="34"/>
+      <c r="F611" s="37"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="34"/>
+      <c r="F612" s="37"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="34"/>
+      <c r="F613" s="37"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="34"/>
+      <c r="F614" s="37"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="34"/>
+      <c r="F615" s="37"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="34"/>
+      <c r="F616" s="37"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="34"/>
+      <c r="F617" s="37"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="34"/>
+      <c r="F618" s="37"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="34"/>
+      <c r="F619" s="37"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="34"/>
+      <c r="F620" s="37"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="34"/>
+      <c r="F621" s="37"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="34"/>
+      <c r="F622" s="37"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="34"/>
+      <c r="F623" s="37"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="34"/>
+      <c r="F624" s="37"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="34"/>
+      <c r="F625" s="37"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="34"/>
+      <c r="F626" s="37"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="34"/>
+      <c r="F627" s="37"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="34"/>
+      <c r="F628" s="37"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="34"/>
+      <c r="F629" s="37"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="34"/>
+      <c r="F630" s="37"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="34"/>
+      <c r="F631" s="37"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="34"/>
+      <c r="F632" s="37"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="34"/>
+      <c r="F633" s="37"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="34"/>
+      <c r="F634" s="37"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="34"/>
+      <c r="F635" s="37"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="34"/>
+      <c r="F636" s="37"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="34"/>
+      <c r="F637" s="37"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="34"/>
+      <c r="F638" s="37"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="34"/>
+      <c r="F639" s="37"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="34"/>
+      <c r="F640" s="37"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="34"/>
+      <c r="F641" s="37"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="34"/>
+      <c r="F642" s="37"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="34"/>
+      <c r="F643" s="37"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="34"/>
+      <c r="F644" s="37"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="34"/>
+      <c r="F645" s="37"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="34"/>
+      <c r="F646" s="37"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="34"/>
+      <c r="F647" s="37"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="34"/>
+      <c r="F648" s="37"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="34"/>
+      <c r="F649" s="37"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="34"/>
+      <c r="F650" s="37"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="34"/>
+      <c r="F651" s="37"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="34"/>
+      <c r="F652" s="37"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="34"/>
+      <c r="F653" s="37"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="34"/>
+      <c r="F654" s="37"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="34"/>
+      <c r="F655" s="37"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="34"/>
+      <c r="F656" s="37"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="34"/>
+      <c r="F657" s="37"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="34"/>
+      <c r="F658" s="37"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="34"/>
+      <c r="F659" s="37"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="34"/>
+      <c r="F660" s="37"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="34"/>
+      <c r="F661" s="37"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="34"/>
+      <c r="F662" s="37"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="34"/>
+      <c r="F663" s="37"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="34"/>
+      <c r="F664" s="37"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="34"/>
+      <c r="F665" s="37"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="34"/>
+      <c r="F666" s="37"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="34"/>
+      <c r="F667" s="37"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="34"/>
+      <c r="F668" s="37"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="34"/>
+      <c r="F669" s="37"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="34"/>
+      <c r="F670" s="37"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="34"/>
+      <c r="F671" s="37"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="34"/>
+      <c r="F672" s="37"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="34"/>
+      <c r="F673" s="37"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="34"/>
+      <c r="F674" s="37"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="34"/>
+      <c r="F675" s="37"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="34"/>
+      <c r="F676" s="37"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="34"/>
+      <c r="F677" s="37"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="34"/>
+      <c r="F678" s="37"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="34"/>
+      <c r="F679" s="37"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="34"/>
+      <c r="F680" s="37"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="34"/>
+      <c r="F681" s="37"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="34"/>
+      <c r="F682" s="37"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="34"/>
+      <c r="F683" s="37"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="34"/>
+      <c r="F684" s="37"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="34"/>
+      <c r="F685" s="37"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="34"/>
+      <c r="F686" s="37"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="34"/>
+      <c r="F687" s="37"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="34"/>
+      <c r="F688" s="37"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="34"/>
+      <c r="F689" s="37"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="34"/>
+      <c r="F690" s="37"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="34"/>
+      <c r="F691" s="37"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="34"/>
+      <c r="F692" s="37"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="34"/>
+      <c r="F693" s="37"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="34"/>
+      <c r="F694" s="37"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="34"/>
+      <c r="F695" s="37"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="34"/>
+      <c r="F696" s="37"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="34"/>
+      <c r="F697" s="37"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="34"/>
+      <c r="F698" s="37"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="34"/>
+      <c r="F699" s="37"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="34"/>
+      <c r="F700" s="37"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="34"/>
+      <c r="F701" s="37"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="34"/>
+      <c r="F702" s="37"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="34"/>
+      <c r="F703" s="37"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="34"/>
+      <c r="F704" s="37"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="34"/>
+      <c r="F705" s="37"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="34"/>
+      <c r="F706" s="37"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="34"/>
+      <c r="F707" s="37"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="34"/>
+      <c r="F708" s="37"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="34"/>
+      <c r="F709" s="37"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="34"/>
+      <c r="F710" s="37"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="34"/>
+      <c r="F711" s="37"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="34"/>
+      <c r="F712" s="37"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="34"/>
+      <c r="F713" s="37"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="34"/>
+      <c r="F714" s="37"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="34"/>
+      <c r="F715" s="37"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="34"/>
+      <c r="F716" s="37"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="34"/>
+      <c r="F717" s="37"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="34"/>
+      <c r="F718" s="37"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="34"/>
+      <c r="F719" s="37"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="34"/>
+      <c r="F720" s="37"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="34"/>
+      <c r="F721" s="37"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="34"/>
+      <c r="F722" s="37"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="34"/>
+      <c r="F723" s="37"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="34"/>
+      <c r="F724" s="37"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="34"/>
+      <c r="F725" s="37"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="34"/>
+      <c r="F726" s="37"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="34"/>
+      <c r="F727" s="37"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="34"/>
+      <c r="F728" s="37"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="34"/>
+      <c r="F729" s="37"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="34"/>
+      <c r="F730" s="37"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="34"/>
+      <c r="F731" s="37"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="34"/>
+      <c r="F732" s="37"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="34"/>
+      <c r="F733" s="37"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="34"/>
+      <c r="F734" s="37"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="34"/>
+      <c r="F735" s="37"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="34"/>
+      <c r="F736" s="37"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="34"/>
+      <c r="F737" s="37"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="34"/>
+      <c r="F738" s="37"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="34"/>
+      <c r="F739" s="37"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="34"/>
+      <c r="F740" s="37"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="34"/>
+      <c r="F741" s="37"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="34"/>
+      <c r="F742" s="37"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="34"/>
+      <c r="F743" s="37"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="34"/>
+      <c r="F744" s="37"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="34"/>
+      <c r="F745" s="37"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="34"/>
+      <c r="F746" s="37"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="34"/>
+      <c r="F747" s="37"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="34"/>
+      <c r="F748" s="37"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="34"/>
+      <c r="F749" s="37"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="34"/>
+      <c r="F750" s="37"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="34"/>
+      <c r="F751" s="37"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="34"/>
+      <c r="F752" s="37"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="34"/>
+      <c r="F753" s="37"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="34"/>
+      <c r="F754" s="37"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="34"/>
+      <c r="F755" s="37"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="34"/>
+      <c r="F756" s="37"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="34"/>
+      <c r="F757" s="37"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="34"/>
+      <c r="F758" s="37"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="34"/>
+      <c r="F759" s="37"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="34"/>
+      <c r="F760" s="37"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="34"/>
+      <c r="F761" s="37"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="34"/>
+      <c r="F762" s="37"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="34"/>
+      <c r="F763" s="37"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="34"/>
+      <c r="F764" s="37"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="34"/>
+      <c r="F765" s="37"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="34"/>
+      <c r="F766" s="37"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="34"/>
+      <c r="F767" s="37"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="34"/>
+      <c r="F768" s="37"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="34"/>
+      <c r="F769" s="37"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="34"/>
+      <c r="F770" s="37"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="34"/>
+      <c r="F771" s="37"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="34"/>
+      <c r="F772" s="37"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="34"/>
+      <c r="F773" s="37"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="34"/>
+      <c r="F774" s="37"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="34"/>
+      <c r="F775" s="37"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="34"/>
+      <c r="F776" s="37"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="34"/>
+      <c r="F777" s="37"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="34"/>
+      <c r="F778" s="37"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="34"/>
+      <c r="F779" s="37"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="34"/>
+      <c r="F780" s="37"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="34"/>
+      <c r="F781" s="37"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="34"/>
+      <c r="F782" s="37"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="34"/>
+      <c r="F783" s="37"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="34"/>
+      <c r="F784" s="37"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="34"/>
+      <c r="F785" s="37"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="34"/>
+      <c r="F786" s="37"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="34"/>
+      <c r="F787" s="37"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="34"/>
+      <c r="F788" s="37"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="34"/>
+      <c r="F789" s="37"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="34"/>
+      <c r="F790" s="37"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="34"/>
+      <c r="F791" s="37"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="34"/>
+      <c r="F792" s="37"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="34"/>
+      <c r="F793" s="37"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="34"/>
+      <c r="F794" s="37"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="34"/>
+      <c r="F795" s="37"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="34"/>
+      <c r="F796" s="37"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="34"/>
+      <c r="F797" s="37"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="34"/>
+      <c r="F798" s="37"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="34"/>
+      <c r="F799" s="37"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="34"/>
+      <c r="F800" s="37"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="34"/>
+      <c r="F801" s="37"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="34"/>
+      <c r="F802" s="37"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="34"/>
+      <c r="F803" s="37"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="34"/>
+      <c r="F804" s="37"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="34"/>
+      <c r="F805" s="37"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="34"/>
+      <c r="F806" s="37"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="34"/>
+      <c r="F807" s="37"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="34"/>
+      <c r="F808" s="37"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="34"/>
+      <c r="F809" s="37"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="34"/>
+      <c r="F810" s="37"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="34"/>
+      <c r="F811" s="37"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="34"/>
+      <c r="F812" s="37"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="34"/>
+      <c r="F813" s="37"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="34"/>
+      <c r="F814" s="37"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="34"/>
+      <c r="F815" s="37"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="34"/>
+      <c r="F816" s="37"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="34"/>
+      <c r="F817" s="37"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="34"/>
+      <c r="F818" s="37"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="34"/>
+      <c r="F819" s="37"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="34"/>
+      <c r="F820" s="37"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="34"/>
+      <c r="F821" s="37"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="34"/>
+      <c r="F822" s="37"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="34"/>
+      <c r="F823" s="37"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="34"/>
+      <c r="F824" s="37"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="34"/>
+      <c r="F825" s="37"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="34"/>
+      <c r="F826" s="37"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="34"/>
+      <c r="F827" s="37"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="34"/>
+      <c r="F828" s="37"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="34"/>
+      <c r="F829" s="37"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="34"/>
+      <c r="F830" s="37"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="34"/>
+      <c r="F831" s="37"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="34"/>
+      <c r="F832" s="37"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="34"/>
+      <c r="F833" s="37"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="34"/>
+      <c r="F834" s="37"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="34"/>
+      <c r="F835" s="37"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="34"/>
+      <c r="F836" s="37"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="34"/>
+      <c r="F837" s="37"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="34"/>
+      <c r="F838" s="37"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="34"/>
+      <c r="F839" s="37"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="34"/>
+      <c r="F840" s="37"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="34"/>
+      <c r="F841" s="37"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="34"/>
+      <c r="F842" s="37"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="34"/>
+      <c r="F843" s="37"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="34"/>
+      <c r="F844" s="37"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="34"/>
+      <c r="F845" s="37"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="34"/>
+      <c r="F846" s="37"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="34"/>
+      <c r="F847" s="37"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="34"/>
+      <c r="F848" s="37"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="34"/>
+      <c r="F849" s="37"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="34"/>
+      <c r="F850" s="37"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="34"/>
+      <c r="F851" s="37"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="34"/>
+      <c r="F852" s="37"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="34"/>
+      <c r="F853" s="37"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="34"/>
+      <c r="F854" s="37"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="34"/>
+      <c r="F855" s="37"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="34"/>
+      <c r="F856" s="37"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="34"/>
+      <c r="F857" s="37"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="34"/>
+      <c r="F858" s="37"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="34"/>
+      <c r="F859" s="37"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="34"/>
+      <c r="F860" s="37"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="34"/>
+      <c r="F861" s="37"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="34"/>
+      <c r="F862" s="37"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="34"/>
+      <c r="F863" s="37"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="34"/>
+      <c r="F864" s="37"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="34"/>
+      <c r="F865" s="37"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="34"/>
+      <c r="F866" s="37"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="34"/>
+      <c r="F867" s="37"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="34"/>
+      <c r="F868" s="37"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="34"/>
+      <c r="F869" s="37"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="34"/>
+      <c r="F870" s="37"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="34"/>
+      <c r="F871" s="37"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="34"/>
+      <c r="F872" s="37"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="34"/>
+      <c r="F873" s="37"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="34"/>
+      <c r="F874" s="37"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="34"/>
+      <c r="F875" s="37"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="34"/>
+      <c r="F876" s="37"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="34"/>
+      <c r="F877" s="37"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="34"/>
+      <c r="F878" s="37"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="34"/>
+      <c r="F879" s="37"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="34"/>
+      <c r="F880" s="37"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="34"/>
+      <c r="F881" s="37"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="34"/>
+      <c r="F882" s="37"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="34"/>
+      <c r="F883" s="37"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="34"/>
+      <c r="F884" s="37"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="34"/>
+      <c r="F885" s="37"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="34"/>
+      <c r="F886" s="37"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="34"/>
+      <c r="F887" s="37"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="34"/>
+      <c r="F888" s="37"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="34"/>
+      <c r="F889" s="37"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="34"/>
+      <c r="F890" s="37"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="34"/>
+      <c r="F891" s="37"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="34"/>
+      <c r="F892" s="37"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="34"/>
+      <c r="F893" s="37"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="34"/>
+      <c r="F894" s="37"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="34"/>
+      <c r="F895" s="37"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="34"/>
+      <c r="F896" s="37"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="34"/>
+      <c r="F897" s="37"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="34"/>
+      <c r="F898" s="37"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="34"/>
+      <c r="F899" s="37"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="34"/>
+      <c r="F900" s="37"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="34"/>
+      <c r="F901" s="37"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="34"/>
+      <c r="F902" s="37"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="34"/>
+      <c r="F903" s="37"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="34"/>
+      <c r="F904" s="37"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="34"/>
+      <c r="F905" s="37"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="34"/>
+      <c r="F906" s="37"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="34"/>
+      <c r="F907" s="37"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="34"/>
+      <c r="F908" s="37"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="34"/>
+      <c r="F909" s="37"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="34"/>
+      <c r="F910" s="37"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="34"/>
+      <c r="F911" s="37"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="34"/>
+      <c r="F912" s="37"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="34"/>
+      <c r="F913" s="37"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="34"/>
+      <c r="F914" s="37"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="34"/>
+      <c r="F915" s="37"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="34"/>
+      <c r="F916" s="37"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="34"/>
+      <c r="F917" s="37"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="34"/>
+      <c r="F918" s="37"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="34"/>
+      <c r="F919" s="37"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="34"/>
+      <c r="F920" s="37"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="34"/>
+      <c r="F921" s="37"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="34"/>
+      <c r="F922" s="37"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="34"/>
+      <c r="F923" s="37"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="34"/>
+      <c r="F924" s="37"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="34"/>
+      <c r="F925" s="37"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="34"/>
+      <c r="F926" s="37"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="34"/>
+      <c r="F927" s="37"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="34"/>
+      <c r="F928" s="37"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="34"/>
+      <c r="F929" s="37"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="34"/>
+      <c r="F930" s="37"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="34"/>
+      <c r="F931" s="37"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="34"/>
+      <c r="F932" s="37"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="34"/>
+      <c r="F933" s="37"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="34"/>
+      <c r="F934" s="37"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="34"/>
+      <c r="F935" s="37"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="34"/>
+      <c r="F936" s="37"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="34"/>
+      <c r="F937" s="37"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="34"/>
+      <c r="F938" s="37"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="34"/>
+      <c r="F939" s="37"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="34"/>
+      <c r="F940" s="37"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="34"/>
+      <c r="F941" s="37"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="34"/>
+      <c r="F942" s="37"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="34"/>
+      <c r="F943" s="37"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="34"/>
+      <c r="F944" s="37"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="34"/>
+      <c r="F945" s="37"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="34"/>
+      <c r="F946" s="37"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="34"/>
+      <c r="F947" s="37"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="34"/>
+      <c r="F948" s="37"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="34"/>
+      <c r="F949" s="37"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="34"/>
+      <c r="F950" s="37"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="34"/>
+      <c r="F951" s="37"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="34"/>
+      <c r="F952" s="37"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="34"/>
+      <c r="F953" s="37"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="34"/>
+      <c r="F954" s="37"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="34"/>
+      <c r="F955" s="37"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="34"/>
+      <c r="F956" s="37"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="34"/>
+      <c r="F957" s="37"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="34"/>
+      <c r="F958" s="37"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="34"/>
+      <c r="F959" s="37"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="34"/>
+      <c r="F960" s="37"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="34"/>
+      <c r="F961" s="37"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="34"/>
+      <c r="F962" s="37"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="34"/>
+      <c r="F963" s="37"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="34"/>
+      <c r="F964" s="37"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="34"/>
+      <c r="F965" s="37"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="34"/>
+      <c r="F966" s="37"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="34"/>
+      <c r="F967" s="37"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="34"/>
+      <c r="F968" s="37"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="34"/>
+      <c r="F969" s="37"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="34"/>
+      <c r="F970" s="37"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="34"/>
+      <c r="F971" s="37"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="34"/>
+      <c r="F972" s="37"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="34"/>
+      <c r="F973" s="37"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="34"/>
+      <c r="F974" s="37"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="34"/>
+      <c r="F975" s="37"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="34"/>
+      <c r="F976" s="37"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="34"/>
+      <c r="F977" s="37"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="34"/>
+      <c r="F978" s="37"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="34"/>
+      <c r="F979" s="37"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="34"/>
+      <c r="F980" s="37"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="34"/>
+      <c r="F981" s="37"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="34"/>
+      <c r="F982" s="37"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="34"/>
+      <c r="F983" s="37"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="34"/>
+      <c r="F984" s="37"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="34"/>
+      <c r="F985" s="37"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="34"/>
+      <c r="F986" s="37"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="34"/>
+      <c r="F987" s="37"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="34"/>
+      <c r="F988" s="37"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="34"/>
+      <c r="F989" s="37"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="34"/>
+      <c r="F990" s="37"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="34"/>
+      <c r="F991" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
